--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/B/15/seed4/result_data_RandomForest.xlsx
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.405399999999998</v>
+        <v>6.152499999999999</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.602799999999995</v>
+        <v>6.477399999999998</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -712,7 +712,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.863899999999997</v>
+        <v>8.910199999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>6.378300000000005</v>
+        <v>6.420600000000007</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -922,7 +922,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.614600000000001</v>
+        <v>8.6991</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.354899999999994</v>
+        <v>5.401399999999994</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>4.999000000000001</v>
+        <v>5.477199999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1524,7 +1524,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>10.1604</v>
+        <v>10.2266</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1580,7 +1580,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.418000000000001</v>
+        <v>5.417500000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1594,7 +1594,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.6332</v>
+        <v>5.300699999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.476499999999999</v>
+        <v>5.599100000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
